--- a/daily_submission_stats.xlsx
+++ b/daily_submission_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ioi_project\ioi-grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3BB1BCE9-BEC3-4C0E-8CBE-8AB92B05B74C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BDAF46E9-9611-490C-B8EA-E6136ED4FCE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -649,6 +649,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Day</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2060,7 +2120,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/daily_submission_stats.xlsx
+++ b/daily_submission_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ioi_project\ioi-grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BDAF46E9-9611-490C-B8EA-E6136ED4FCE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F1AC037A-A1FA-4330-98EE-3A9192980CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>i10</t>
   </si>
   <si>
-    <t>00:00</t>
-  </si>
-  <si>
     <t>00:30</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>04:30</t>
+  </si>
+  <si>
+    <t>05:00</t>
   </si>
 </sst>
 </file>
@@ -739,34 +739,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>00:00</c:v>
+                  <c:v>00:30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>00:30</c:v>
+                  <c:v>01:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>01:00</c:v>
+                  <c:v>01:30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>01:30</c:v>
+                  <c:v>02:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>02:00</c:v>
+                  <c:v>02:30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>02:30</c:v>
+                  <c:v>03:00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>03:00</c:v>
+                  <c:v>03:30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>03:30</c:v>
+                  <c:v>04:00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>04:00</c:v>
+                  <c:v>04:30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>04:30</c:v>
+                  <c:v>05:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -841,34 +841,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>00:00</c:v>
+                  <c:v>00:30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>00:30</c:v>
+                  <c:v>01:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>01:00</c:v>
+                  <c:v>01:30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>01:30</c:v>
+                  <c:v>02:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>02:00</c:v>
+                  <c:v>02:30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>02:30</c:v>
+                  <c:v>03:00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>03:00</c:v>
+                  <c:v>03:30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>03:30</c:v>
+                  <c:v>04:00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>04:00</c:v>
+                  <c:v>04:30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>04:30</c:v>
+                  <c:v>05:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -943,34 +943,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>00:00</c:v>
+                  <c:v>00:30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>00:30</c:v>
+                  <c:v>01:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>01:00</c:v>
+                  <c:v>01:30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>01:30</c:v>
+                  <c:v>02:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>02:00</c:v>
+                  <c:v>02:30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>02:30</c:v>
+                  <c:v>03:00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>03:00</c:v>
+                  <c:v>03:30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>03:30</c:v>
+                  <c:v>04:00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>04:00</c:v>
+                  <c:v>04:30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>04:30</c:v>
+                  <c:v>05:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2120,7 +2120,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
